--- a/position wimi v2/ozon_fish.xlsx
+++ b/position wimi v2/ozon_fish.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wb_card-phars\position wimi v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A3696B-23A6-4983-9104-2350F9C79321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12657FDB-CDB4-4CA0-B4B2-06A5BA65CB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="3795" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>запросов на скю</t>
   </si>
@@ -56,10 +56,22 @@
     <t>фломастер</t>
   </si>
   <si>
+    <t>Спортивные кожаные кроссовки мужские</t>
+  </si>
+  <si>
+    <t>x-o3-language=ru; __Secure-ab-group=66; __Secure-ext_xcid=51f3adde9e5b5aac992b7632ad1c1c2f; __Secure-user-id=76026786; is_adult_confirmed=; is_alco_adult_confirmed=; _ga=GA1.1.1065217927.1678729690; _ga_XZ39GQQ5LW=GS1.1.1682529324.17.1.1682530603.60.0.0; _ga_JNVTMNXQ6F=GS1.1.1685993011.6.1.1685994758.60.0.0; __cf_bm=Rm151cEiCHF3MZ87sRvagyL4xF4cFq_b._.kIQ55354-1686675384-0-ASibhp/1Xe99eE38K97L1JcgmAsWPQ1iVxFR3otUNaz9mx0qe3FcDyq3nZFgnlNV2XqqbQHb9rJ1eO8baU7QJbF14Eh8phV7xNsBeMtSnhXJ; __Secure-access-token=3.76026786.dfkigL1YTlafwbYsDYLP9g.66.l8cMBQAAAABkGJpMEgF_uaN3ZWKsMzc1Mjk5MzgwNTEwAICQoA.20210917093033.20230613190343.otrkIpFAcu3IR3VtrCcaxVycraOk0a3PgLZAYfTgXIA; __Secure-refresh-token=3.76026786.dfkigL1YTlafwbYsDYLP9g.66.l8cMBQAAAABkGJpMEgF_uaN3ZWKsMzc1Mjk5MzgwNTEwAICQoA.20210917093033.20230613190343._PMAzKLax27GAS2dbbJTlMspIQoxD7GfZHgNiVqtpNA; bacntid=1441078; contentId=60617; INGRESSCOOKIE=1686675966.343.2076761.906471|66122eaf4a8e045c1339a9e8b68bead7; rfuid=NjkyNDcyNDUyLDEyNC4wNDM0NzUyNzUxNjA3NCwtMjg3MDM2NTYzLC0xLC0xNjQzMzUxNzM0LFczc2libUZ0WlNJNklsQkVSaUJXYVdWM1pYSWlMQ0prWlhOamNtbHdkR2x2YmlJNklsQnZjblJoWW14bElFUnZZM1Z0Wlc1MElFWnZjbTFoZENJc0ltMXBiV1ZVZVhCbGN5STZXM3NpZEhsd1pTSTZJbUZ3Y0d4cFkyRjBhVzl1TDNCa1ppSXNJbk4xWm1acGVHVnpJam9pY0dSbUluMHNleUowZVhCbElqb2lkR1Y0ZEM5d1pHWWlMQ0p6ZFdabWFYaGxjeUk2SW5Ca1ppSjlYWDBzZXlKdVlXMWxJam9pUTJoeWIyMWxJRkJFUmlCV2FXVjNaWElpTENKa1pYTmpjbWx3ZEdsdmJpSTZJbEJ2Y25SaFlteGxJRVJ2WTNWdFpXNTBJRVp2Y20xaGRDSXNJbTFwYldWVWVYQmxjeUk2VzNzaWRIbHdaU0k2SW1Gd2NHeHBZMkYwYVc5dUwzQmtaaUlzSW5OMVptWnBlR1Z6SWpvaWNHUm1JbjBzZXlKMGVYQmxJam9pZEdWNGRDOXdaR1lpTENKemRXWm1hWGhsY3lJNkluQmtaaUo5WFgwc2V5SnVZVzFsSWpvaVEyaHliMjFwZFcwZ1VFUkdJRlpwWlhkbGNpSXNJbVJsYzJOeWFYQjBhVzl1SWpvaVVHOXlkR0ZpYkdVZ1JHOWpkVzFsYm5RZ1JtOXliV0YwSWl3aWJXbHRaVlI1Y0dWeklqcGJleUowZVhCbElqb2lZWEJ3YkdsallYUnBiMjR2Y0dSbUlpd2ljM1ZtWm1sNFpYTWlPaUp3WkdZaWZTeDdJblI1Y0dVaU9pSjBaWGgwTDNCa1ppSXNJbk4xWm1acGVHVnpJam9pY0dSbUluMWRmU3g3SW01aGJXVWlPaUpOYVdOeWIzTnZablFnUldSblpTQlFSRVlnVm1sbGQyVnlJaXdpWkdWelkzSnBjSFJwYjI0aU9pSlFiM0owWVdKc1pTQkViMk4xYldWdWRDQkdiM0p0WVhRaUxDSnRhVzFsVkhsd1pYTWlPbHQ3SW5SNWNHVWlPaUpoY0hCc2FXTmhkR2x2Ymk5d1pHWWlMQ0p6ZFdabWFYaGxjeUk2SW5Ca1ppSjlMSHNpZEhsd1pTSTZJblJsZUhRdmNHUm1JaXdpYzNWbVptbDRaWE1pT2lKd1pHWWlmVjE5TEhzaWJtRnRaU0k2SWxkbFlrdHBkQ0JpZFdsc2RDMXBiaUJRUkVZaUxDSmtaWE5qY21sd2RHbHZiaUk2SWxCdmNuUmhZbXhsSUVSdlkzVnRaVzUwSUVadmNtMWhkQ0lzSW0xcGJXVlVlWEJsY3lJNlczc2lkSGx3WlNJNkltRndjR3hwWTJGMGFXOXVMM0JrWmlJc0luTjFabVpwZUdWeklqb2ljR1JtSW4wc2V5SjBlWEJsSWpvaWRHVjRkQzl3WkdZaUxDSnpkV1ptYVhobGN5STZJbkJrWmlKOVhYMWQsV3lKeWRTMVNWU0pkLDAsMSwwLDI0LDIzNzQxNTkzMCw4LDIyNzEyNjUyMCwxLDEsMCwtNDkxMjc1NTIzLFIyOXZaMnhsSUVsdVl5NGdUbVYwYzJOaGNHVWdSMlZqYTI4Z1YybHVNeklnTlM0d0lDaFhhVzVrYjNkeklFNVVJREV3TGpBN0lGZHBialkwT3lCNE5qUXBJRUZ3Y0d4bFYyVmlTMmwwTHpVek55NHpOaUFvUzBoVVRVd3NJR3hwYTJVZ1IyVmphMjhwSUVOb2NtOXRaUzh4TVRRdU1DNHdMakFnVTJGbVlYSnBMelV6Tnk0ek5pQXlNREF6TURFd055Qk5iM3BwYkd4aCxleUpqYUhKdmJXVWlPbnNpWVhCd0lqcDdJbWx6U1c1emRHRnNiR1ZrSWpwbVlXeHpaU3dpU1c1emRHRnNiRk4wWVhSbElqcDdJa1JKVTBGQ1RFVkVJam9pWkdsellXSnNaV1FpTENKSlRsTlVRVXhNUlVRaU9pSnBibk4wWVd4c1pXUWlMQ0pPVDFSZlNVNVRWRUZNVEVWRUlqb2libTkwWDJsdWMzUmhiR3hsWkNKOUxDSlNkVzV1YVc1blUzUmhkR1VpT25zaVEwRk9UazlVWDFKVlRpSTZJbU5oYm01dmRGOXlkVzRpTENKU1JVRkVXVjlVVDE5U1ZVNGlPaUp5WldGa2VWOTBiMTl5ZFc0aUxDSlNWVTVPU1U1SElqb2ljblZ1Ym1sdVp5SjlmWDE5LDY1LC0xMjg1NTUxMywxLDEsLTEsMTY5OTk1NDg4NywxNjk5OTU0ODg3LDMzNjAwNzkzMyw0</t>
+  </si>
+  <si>
     <t>x-o3-language=ru; __Secure-ab-group=66; __Secure-ext_xcid=51f3adde9e5b5aac992b7632ad1c1c2f; __Secure-user-id=76026786; is_adult_confirmed=; is_alco_adult_confirmed=; bacntid=1086051; contentId=204063; _ga=GA1.1.1065217927.1678729690; _ga_XZ39GQQ5LW=GS1.1.1682529324.17.1.1682530603.60.0.0; _ga_JNVTMNXQ6F=GS1.1.1685993011.6.1.1685994758.60.0.0; __Secure-access-token=3.76026786.dfkigL1YTlafwbYsDYLP9g.66.l8cMBQAAAABkGJpMEgF_uaN3ZWKsMzc1Mjk5MzgwNTEwAICQoA.20210917093033.20230612190141.CItRHRySM9x04WiWM8uVglnoTSMl6CQidCNx9szbBjE; __Secure-refresh-token=3.76026786.dfkigL1YTlafwbYsDYLP9g.66.l8cMBQAAAABkGJpMEgF_uaN3ZWKsMzc1Mjk5MzgwNTEwAICQoA.20210917093033.20230612190141.cSH1H7J_j96ziyOHsLcGNGAS5vSjiL85voPm5de9H3U; INGRESSCOOKIE=1686593600.97.252203.978434|66122eaf4a8e045c1339a9e8b68bead7; __cf_bm=6WOMUDut_2SWROYdh53d95P8iHPsXnfnFasv8Jj35wQ-1686594059-0-ATTd2LfFoV5RQlOv20O2WKq4ksCwe9D0N3ZmkvQUXLPl7c5Wg8IciQkO5Vfql66udxbUhTyPw4C4ZW2PKJityE4=; __cf_bm=e8Onh6g65qBfi9CiPFcrUJQ.UEF0jfTpYqyK3OpYn5E-1686594374-0-AWEe8V6ZsEoxqiU0mVudJEj6DtNXWh2295/TjUDbIcqSB18mD2fk2eiLsdgrQmV0R8ubOktBjtvdo5n8svr9T0c=</t>
   </si>
   <si>
     <t>надо вставить куки! Вверх!</t>
+  </si>
+  <si>
+    <t>obba</t>
+  </si>
+  <si>
+    <t>wimi</t>
   </si>
 </sst>
 </file>
@@ -104,7 +116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,8 +129,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -126,11 +144,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -154,6 +187,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -434,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="K6" sqref="D3:K6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,44 +486,53 @@
     <col min="2" max="2" width="19.85546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="7" customWidth="1"/>
     <col min="4" max="10" width="11.42578125" style="7" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1">
-        <f t="shared" ref="D1:J1" si="0">COUNTIFS(D3:D7,"&lt;&gt;",D3:D7,"&lt;&gt;0")</f>
-        <v>3</v>
+        <f>COUNTIFS(D3:D600,"&lt;&gt;",D3:D600,"&lt;&gt;0")</f>
+        <v>0</v>
       </c>
       <c r="E1" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="E1:L1" si="0">COUNTIFS(E3:E600,"&lt;&gt;",E3:E600,"&lt;&gt;0")</f>
+        <v>0</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1" s="1">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -514,97 +563,101 @@
       <c r="J2">
         <v>941022683</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>1009040310</v>
+      </c>
+      <c r="L2">
+        <v>1009040348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <f>COUNTIFS(D3:J3,"&lt;&gt;",D3:J3,"&lt;&gt;0")</f>
-        <v>6</v>
+        <f>COUNTIFS(D3:JJ3,"&lt;&gt;",D3:JJ3,"&lt;&gt;0")</f>
+        <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3">
-        <v>1500</v>
-      </c>
-      <c r="E3">
-        <v>632</v>
-      </c>
-      <c r="F3">
-        <v>950</v>
-      </c>
-      <c r="G3">
-        <v>431</v>
-      </c>
-      <c r="H3">
-        <v>160</v>
-      </c>
-      <c r="I3">
-        <v>51</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <f>COUNTIFS(D4:J4,"&lt;&gt;",D4:J4,"&lt;&gt;0")</f>
-        <v>7</v>
+        <f t="shared" ref="A4:A6" si="1">COUNTIFS(D4:JJ4,"&lt;&gt;",D4:JJ4,"&lt;&gt;0")</f>
+        <v>0</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4">
-        <v>1500</v>
-      </c>
-      <c r="E4">
-        <v>1500</v>
-      </c>
-      <c r="F4">
-        <v>1500</v>
-      </c>
-      <c r="G4">
-        <v>1500</v>
-      </c>
-      <c r="H4">
-        <v>1500</v>
-      </c>
-      <c r="I4">
-        <v>1500</v>
-      </c>
-      <c r="J4">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <f>COUNTIFS(D5:J5,"&lt;&gt;",D5:J5,"&lt;&gt;0")</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6">
         <v>1500</v>
       </c>
-      <c r="E5">
-        <v>469</v>
-      </c>
-      <c r="F5">
-        <v>402</v>
-      </c>
-      <c r="G5">
-        <v>313</v>
-      </c>
-      <c r="H5">
-        <v>74</v>
-      </c>
-      <c r="I5">
-        <v>245</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+      <c r="L6">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
@@ -615,30 +668,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="145.5703125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="63.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
+    <row r="1" spans="1:26" ht="167.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13"/>
       <c r="B1" s="2"/>
       <c r="W1" s="2"/>
+      <c r="Y1" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="Z1" s="9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>60617</v>
+      </c>
+      <c r="C3">
+        <v>204063</v>
+      </c>
+      <c r="Y3">
+        <v>60617</v>
+      </c>
+      <c r="Z3">
+        <v>204063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f xml:space="preserve"> "парсим - "&amp;IF($A$5=$Y$3,$Y$2,$Z$2)</f>
+        <v>парсим - obba</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>60617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/position wimi v2/ozon_fish.xlsx
+++ b/position wimi v2/ozon_fish.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wb_card-phars\position wimi v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12657FDB-CDB4-4CA0-B4B2-06A5BA65CB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E08D69-DFAE-4707-8C0D-29360579E277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="3795" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="3795" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ozon" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>запросов на скю</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Спортивные кожаные кроссовки мужские</t>
   </si>
   <si>
-    <t>x-o3-language=ru; __Secure-ab-group=66; __Secure-ext_xcid=51f3adde9e5b5aac992b7632ad1c1c2f; __Secure-user-id=76026786; is_adult_confirmed=; is_alco_adult_confirmed=; _ga=GA1.1.1065217927.1678729690; _ga_XZ39GQQ5LW=GS1.1.1682529324.17.1.1682530603.60.0.0; _ga_JNVTMNXQ6F=GS1.1.1685993011.6.1.1685994758.60.0.0; __cf_bm=Rm151cEiCHF3MZ87sRvagyL4xF4cFq_b._.kIQ55354-1686675384-0-ASibhp/1Xe99eE38K97L1JcgmAsWPQ1iVxFR3otUNaz9mx0qe3FcDyq3nZFgnlNV2XqqbQHb9rJ1eO8baU7QJbF14Eh8phV7xNsBeMtSnhXJ; __Secure-access-token=3.76026786.dfkigL1YTlafwbYsDYLP9g.66.l8cMBQAAAABkGJpMEgF_uaN3ZWKsMzc1Mjk5MzgwNTEwAICQoA.20210917093033.20230613190343.otrkIpFAcu3IR3VtrCcaxVycraOk0a3PgLZAYfTgXIA; __Secure-refresh-token=3.76026786.dfkigL1YTlafwbYsDYLP9g.66.l8cMBQAAAABkGJpMEgF_uaN3ZWKsMzc1Mjk5MzgwNTEwAICQoA.20210917093033.20230613190343._PMAzKLax27GAS2dbbJTlMspIQoxD7GfZHgNiVqtpNA; bacntid=1441078; contentId=60617; INGRESSCOOKIE=1686675966.343.2076761.906471|66122eaf4a8e045c1339a9e8b68bead7; rfuid=NjkyNDcyNDUyLDEyNC4wNDM0NzUyNzUxNjA3NCwtMjg3MDM2NTYzLC0xLC0xNjQzMzUxNzM0LFczc2libUZ0WlNJNklsQkVSaUJXYVdWM1pYSWlMQ0prWlhOamNtbHdkR2x2YmlJNklsQnZjblJoWW14bElFUnZZM1Z0Wlc1MElFWnZjbTFoZENJc0ltMXBiV1ZVZVhCbGN5STZXM3NpZEhsd1pTSTZJbUZ3Y0d4cFkyRjBhVzl1TDNCa1ppSXNJbk4xWm1acGVHVnpJam9pY0dSbUluMHNleUowZVhCbElqb2lkR1Y0ZEM5d1pHWWlMQ0p6ZFdabWFYaGxjeUk2SW5Ca1ppSjlYWDBzZXlKdVlXMWxJam9pUTJoeWIyMWxJRkJFUmlCV2FXVjNaWElpTENKa1pYTmpjbWx3ZEdsdmJpSTZJbEJ2Y25SaFlteGxJRVJ2WTNWdFpXNTBJRVp2Y20xaGRDSXNJbTFwYldWVWVYQmxjeUk2VzNzaWRIbHdaU0k2SW1Gd2NHeHBZMkYwYVc5dUwzQmtaaUlzSW5OMVptWnBlR1Z6SWpvaWNHUm1JbjBzZXlKMGVYQmxJam9pZEdWNGRDOXdaR1lpTENKemRXWm1hWGhsY3lJNkluQmtaaUo5WFgwc2V5SnVZVzFsSWpvaVEyaHliMjFwZFcwZ1VFUkdJRlpwWlhkbGNpSXNJbVJsYzJOeWFYQjBhVzl1SWpvaVVHOXlkR0ZpYkdVZ1JHOWpkVzFsYm5RZ1JtOXliV0YwSWl3aWJXbHRaVlI1Y0dWeklqcGJleUowZVhCbElqb2lZWEJ3YkdsallYUnBiMjR2Y0dSbUlpd2ljM1ZtWm1sNFpYTWlPaUp3WkdZaWZTeDdJblI1Y0dVaU9pSjBaWGgwTDNCa1ppSXNJbk4xWm1acGVHVnpJam9pY0dSbUluMWRmU3g3SW01aGJXVWlPaUpOYVdOeWIzTnZablFnUldSblpTQlFSRVlnVm1sbGQyVnlJaXdpWkdWelkzSnBjSFJwYjI0aU9pSlFiM0owWVdKc1pTQkViMk4xYldWdWRDQkdiM0p0WVhRaUxDSnRhVzFsVkhsd1pYTWlPbHQ3SW5SNWNHVWlPaUpoY0hCc2FXTmhkR2x2Ymk5d1pHWWlMQ0p6ZFdabWFYaGxjeUk2SW5Ca1ppSjlMSHNpZEhsd1pTSTZJblJsZUhRdmNHUm1JaXdpYzNWbVptbDRaWE1pT2lKd1pHWWlmVjE5TEhzaWJtRnRaU0k2SWxkbFlrdHBkQ0JpZFdsc2RDMXBiaUJRUkVZaUxDSmtaWE5qY21sd2RHbHZiaUk2SWxCdmNuUmhZbXhsSUVSdlkzVnRaVzUwSUVadmNtMWhkQ0lzSW0xcGJXVlVlWEJsY3lJNlczc2lkSGx3WlNJNkltRndjR3hwWTJGMGFXOXVMM0JrWmlJc0luTjFabVpwZUdWeklqb2ljR1JtSW4wc2V5SjBlWEJsSWpvaWRHVjRkQzl3WkdZaUxDSnpkV1ptYVhobGN5STZJbkJrWmlKOVhYMWQsV3lKeWRTMVNWU0pkLDAsMSwwLDI0LDIzNzQxNTkzMCw4LDIyNzEyNjUyMCwxLDEsMCwtNDkxMjc1NTIzLFIyOXZaMnhsSUVsdVl5NGdUbVYwYzJOaGNHVWdSMlZqYTI4Z1YybHVNeklnTlM0d0lDaFhhVzVrYjNkeklFNVVJREV3TGpBN0lGZHBialkwT3lCNE5qUXBJRUZ3Y0d4bFYyVmlTMmwwTHpVek55NHpOaUFvUzBoVVRVd3NJR3hwYTJVZ1IyVmphMjhwSUVOb2NtOXRaUzh4TVRRdU1DNHdMakFnVTJGbVlYSnBMelV6Tnk0ek5pQXlNREF6TURFd055Qk5iM3BwYkd4aCxleUpqYUhKdmJXVWlPbnNpWVhCd0lqcDdJbWx6U1c1emRHRnNiR1ZrSWpwbVlXeHpaU3dpU1c1emRHRnNiRk4wWVhSbElqcDdJa1JKVTBGQ1RFVkVJam9pWkdsellXSnNaV1FpTENKSlRsTlVRVXhNUlVRaU9pSnBibk4wWVd4c1pXUWlMQ0pPVDFSZlNVNVRWRUZNVEVWRUlqb2libTkwWDJsdWMzUmhiR3hsWkNKOUxDSlNkVzV1YVc1blUzUmhkR1VpT25zaVEwRk9UazlVWDFKVlRpSTZJbU5oYm01dmRGOXlkVzRpTENKU1JVRkVXVjlVVDE5U1ZVNGlPaUp5WldGa2VWOTBiMTl5ZFc0aUxDSlNWVTVPU1U1SElqb2ljblZ1Ym1sdVp5SjlmWDE5LDY1LC0xMjg1NTUxMywxLDEsLTEsMTY5OTk1NDg4NywxNjk5OTU0ODg3LDMzNjAwNzkzMyw0</t>
-  </si>
-  <si>
-    <t>x-o3-language=ru; __Secure-ab-group=66; __Secure-ext_xcid=51f3adde9e5b5aac992b7632ad1c1c2f; __Secure-user-id=76026786; is_adult_confirmed=; is_alco_adult_confirmed=; bacntid=1086051; contentId=204063; _ga=GA1.1.1065217927.1678729690; _ga_XZ39GQQ5LW=GS1.1.1682529324.17.1.1682530603.60.0.0; _ga_JNVTMNXQ6F=GS1.1.1685993011.6.1.1685994758.60.0.0; __Secure-access-token=3.76026786.dfkigL1YTlafwbYsDYLP9g.66.l8cMBQAAAABkGJpMEgF_uaN3ZWKsMzc1Mjk5MzgwNTEwAICQoA.20210917093033.20230612190141.CItRHRySM9x04WiWM8uVglnoTSMl6CQidCNx9szbBjE; __Secure-refresh-token=3.76026786.dfkigL1YTlafwbYsDYLP9g.66.l8cMBQAAAABkGJpMEgF_uaN3ZWKsMzc1Mjk5MzgwNTEwAICQoA.20210917093033.20230612190141.cSH1H7J_j96ziyOHsLcGNGAS5vSjiL85voPm5de9H3U; INGRESSCOOKIE=1686593600.97.252203.978434|66122eaf4a8e045c1339a9e8b68bead7; __cf_bm=6WOMUDut_2SWROYdh53d95P8iHPsXnfnFasv8Jj35wQ-1686594059-0-ATTd2LfFoV5RQlOv20O2WKq4ksCwe9D0N3ZmkvQUXLPl7c5Wg8IciQkO5Vfql66udxbUhTyPw4C4ZW2PKJityE4=; __cf_bm=e8Onh6g65qBfi9CiPFcrUJQ.UEF0jfTpYqyK3OpYn5E-1686594374-0-AWEe8V6ZsEoxqiU0mVudJEj6DtNXWh2295/TjUDbIcqSB18mD2fk2eiLsdgrQmV0R8ubOktBjtvdo5n8svr9T0c=</t>
-  </si>
-  <si>
     <t>надо вставить куки! Вверх!</t>
   </si>
   <si>
@@ -72,13 +66,16 @@
   </si>
   <si>
     <t>wimi</t>
+  </si>
+  <si>
+    <t>надо вставить ID кабинета! Вниз!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,12 +89,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -180,10 +171,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -194,11 +184,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBFBFB"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor rgb="FFE0F4DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBFBFB"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBFBFB"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -474,65 +571,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="7" customWidth="1"/>
-    <col min="4" max="10" width="11.42578125" style="7" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="6" customWidth="1"/>
+    <col min="4" max="7" width="11.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1">
-        <f>COUNTIFS(D3:D600,"&lt;&gt;",D3:D600,"&lt;&gt;0")</f>
+        <f t="shared" ref="D1:G1" si="0">COUNTIFS(D3:D600,"&lt;&gt;",D3:D600,"&lt;&gt;0")</f>
         <v>0</v>
       </c>
       <c r="E1" s="1">
-        <f t="shared" ref="E1:L1" si="0">COUNTIFS(E3:E600,"&lt;&gt;",E3:E600,"&lt;&gt;0")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L1" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -546,121 +621,134 @@
         <v>320156743</v>
       </c>
       <c r="E2" s="1">
-        <v>343667291</v>
-      </c>
-      <c r="F2">
-        <v>655752732</v>
-      </c>
-      <c r="G2">
-        <v>940966260</v>
-      </c>
-      <c r="H2">
-        <v>588351309</v>
-      </c>
-      <c r="I2">
-        <v>588430038</v>
-      </c>
-      <c r="J2">
         <v>941022683</v>
       </c>
-      <c r="K2">
+      <c r="F2" s="1">
         <v>1009040310</v>
       </c>
-      <c r="L2">
+      <c r="G2" s="1">
         <v>1009040348</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <f>COUNTIFS(D3:JJ3,"&lt;&gt;",D3:JJ3,"&lt;&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="B3" s="6" t="s">
+        <f>COUNTIFS(D3:JE3,"&lt;&gt;",D3:JE3,"&lt;&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3"/>
+      <c r="C3" s="1"/>
       <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <f t="shared" ref="A4:A6" si="1">COUNTIFS(D4:JJ4,"&lt;&gt;",D4:JJ4,"&lt;&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="B4" s="6" t="s">
+        <f>COUNTIFS(D4:JE4,"&lt;&gt;",D4:JE4,"&lt;&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4"/>
+      <c r="C4" s="1"/>
       <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
+        <f>COUNTIFS(D5:JE5,"&lt;&gt;",D5:JE5,"&lt;&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5"/>
+      <c r="C5" s="1"/>
       <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS(D6:JE6,"&lt;&gt;",D6:JE6,"&lt;&gt;0")</f>
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6">
+      <c r="C6" s="1"/>
+      <c r="F6" s="6">
         <v>1500</v>
       </c>
-      <c r="L6">
+      <c r="G6" s="6">
         <v>1500</v>
       </c>
     </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="1"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:G2">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>A$2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:C5">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$B1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:YT5555">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>D3&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C5">
+    <cfRule type="expression" dxfId="4" priority="9">
+      <formula>$A3=MAX($A$3:$A$2980)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="10">
+      <formula>$A3=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:C9">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$B6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:C9">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$A6=MAX($A$3:$A$2980)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>$A6=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
 </worksheet>
@@ -670,39 +758,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="63.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="167.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
+      <c r="A1" s="12"/>
       <c r="B1" s="2"/>
       <c r="W1" s="2"/>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>12</v>
+      <c r="Y2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -720,18 +804,17 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f xml:space="preserve"> "парсим - "&amp;IF($A$5=$Y$3,$Y$2,$Z$2)</f>
-        <v>парсим - obba</v>
+      <c r="A4" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>60617</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
